--- a/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="555" windowWidth="19440" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19125" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1792,7 +1792,7 @@
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="77" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jul 20 2015 13:11:27</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D14" s="102" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0008</v>
+        <v>HKDYCSTD#0005</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="122"/>
@@ -2117,7 +2117,7 @@
       <c r="B23" s="78"/>
       <c r="C23" s="113">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="D23" s="114">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
@@ -2130,11 +2130,11 @@
       <c r="B24" s="78"/>
       <c r="C24" s="115">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>49443</v>
+        <v>49486</v>
       </c>
       <c r="D24" s="90">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>0.61733372763186234</v>
+        <v>0.59816766612848471</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="122"/>
@@ -2223,7 +2223,7 @@
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -2263,15 +2263,15 @@
     <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00121#0002</v>
+        <v>obj_00138#0005</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A2)</f>
-        <v>HkdHiborONLastFixing_Quote</v>
+        <v>HKDOND_Quote</v>
       </c>
       <c r="C2" s="5">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>4.7990000000000006E-4</v>
+        <v>5.6530000000000003E-4</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="b">
@@ -2285,25 +2285,25 @@
       </c>
       <c r="H2" s="11">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I2" s="12">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00127#0002</v>
+        <v>obj_0013f#0003</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A3)</f>
-        <v>HkdHiborSWLastFixing_Quote</v>
-      </c>
-      <c r="C3" s="5">
+        <v>HKDSWD_Quote</v>
+      </c>
+      <c r="C3" s="5" t="e">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>9.9140000000000014E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="b">
@@ -2317,25 +2317,25 @@
       </c>
       <c r="H3" s="11">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I3" s="12">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>42142</v>
+        <v>42187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00126#0002</v>
+        <v>obj_0013e#0003</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A4)</f>
-        <v>HkdHibor2WLastFixing_Quote</v>
+        <v>HKD2WD_Quote</v>
       </c>
       <c r="C4" s="5">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
-        <v>1.3820000000000002E-3</v>
+        <v>1.6257000000000001E-3</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="b">
@@ -2349,25 +2349,25 @@
       </c>
       <c r="H4" s="11">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I4" s="12">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>42150</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00129#0002</v>
+        <v>obj_00139#0003</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A5)</f>
-        <v>HkdHibor1MLastFixing_Quote</v>
+        <v>HKD1MD_Quote</v>
       </c>
       <c r="C5" s="5">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>2.4043000000000003E-3</v>
+        <v>2.4094000000000003E-3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="b">
@@ -2381,25 +2381,25 @@
       </c>
       <c r="H5" s="11">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I5" s="12">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>42166</v>
+        <v>42212</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00125#0002</v>
+        <v>obj_0013d#0003</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A6)</f>
-        <v>HkdHibor2MLastFixing_Quote</v>
+        <v>HKD2MD_Quote</v>
       </c>
       <c r="C6" s="5">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
-        <v>3.0371000000000005E-3</v>
+        <v>3.0586000000000003E-3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="b">
@@ -2413,25 +2413,25 @@
       </c>
       <c r="H6" s="11">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I6" s="12">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>42198</v>
+        <v>42241</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00122#0002</v>
+        <v>obj_0013a#0003</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A7)</f>
-        <v>HkdHibor3MLastFixing_Quote</v>
+        <v>HKD3MD_Quote</v>
       </c>
       <c r="C7" s="5">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
-        <v>3.8600000000000001E-3</v>
+        <v>3.8814000000000006E-3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="b">
@@ -2445,25 +2445,25 @@
       </c>
       <c r="H7" s="11">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I7" s="12">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>42227</v>
+        <v>42272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00128#0002</v>
+        <v>obj_00140#0003</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A8)</f>
-        <v>HkdHibor6MLastFixing_Quote</v>
+        <v>HKD6MD_Quote</v>
       </c>
       <c r="C8" s="5">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>5.4136000000000011E-3</v>
+        <v>5.4286000000000004E-3</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="b">
@@ -2477,21 +2477,21 @@
       </c>
       <c r="H8" s="11">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I8" s="12">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>42319</v>
+        <v>42366</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00124#0002</v>
+        <v>obj_0013c#0003</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A9)</f>
-        <v>HkdHibor9MLastFixing_Quote</v>
+        <v>HKD9MD_Quote</v>
       </c>
       <c r="C9" s="5" t="e">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
@@ -2509,25 +2509,25 @@
       </c>
       <c r="H9" s="11">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I9" s="12">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>42411</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
         <f>Deposits!E11</f>
-        <v>obj_00123#0002</v>
+        <v>obj_0013b#0003</v>
       </c>
       <c r="B10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(A10)</f>
-        <v>HkdHibor1YLastFixing_Quote</v>
+        <v>HKD1YD_Quote</v>
       </c>
       <c r="C10" s="8">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>8.4153000000000006E-3</v>
+        <v>8.4329000000000001E-3</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="b">
@@ -2541,17 +2541,17 @@
       </c>
       <c r="H10" s="13">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I10" s="14">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42501</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f>Swaps!L6</f>
-        <v>obj_00157#0003</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A11)</f>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="C11" s="5">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="D11" s="5">
         <f>_xll.qlSwapRateHelperSpread($A11,Trigger)</f>
@@ -2577,17 +2577,17 @@
       </c>
       <c r="H11" s="11">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I11" s="12">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42502</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>Swaps!L7</f>
-        <v>obj_00169#0003</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A12)</f>
@@ -2613,17 +2613,17 @@
       </c>
       <c r="H12" s="11">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I12" s="12">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42594</v>
+        <v>42639</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Swaps!L8</f>
-        <v>obj_00166#0003</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A13)</f>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C13" s="5">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>6.5000000000000006E-3</v>
+        <v>6.6999999999999994E-3</v>
       </c>
       <c r="D13" s="5">
         <f>_xll.qlSwapRateHelperSpread($A13,Trigger)</f>
@@ -2649,17 +2649,17 @@
       </c>
       <c r="H13" s="11">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I13" s="12">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42688</v>
+        <v>42731</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
         <f>Swaps!L9</f>
-        <v>obj_00163#0003</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A14)</f>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="H14" s="11">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I14" s="12">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42779</v>
+        <v>42821</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f>Swaps!L10</f>
-        <v>obj_00160#0003</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A15)</f>
@@ -2721,17 +2721,17 @@
       </c>
       <c r="H15" s="11">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I15" s="12">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42867</v>
+        <v>42912</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f>Swaps!L11</f>
-        <v>obj_0015d#0003</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A16)</f>
@@ -2757,17 +2757,17 @@
       </c>
       <c r="H16" s="11">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I16" s="12">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>43234</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
         <f>Swaps!L12</f>
-        <v>obj_0015a#0003</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A17)</f>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C17" s="5">
         <f>_xll.qlRateHelperQuoteValue($A17,Trigger)</f>
-        <v>1.38E-2</v>
+        <v>1.3900000000000001E-2</v>
       </c>
       <c r="D17" s="5">
         <f>_xll.qlSwapRateHelperSpread($A17,Trigger)</f>
@@ -2793,17 +2793,17 @@
       </c>
       <c r="H17" s="11">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I17" s="12">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>43598</v>
+        <v>43642</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f>Swaps!L13</f>
-        <v>obj_0016c#0003</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A18)</f>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C18" s="5">
         <f>_xll.qlRateHelperQuoteValue($A18,Trigger)</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.6200000000000003E-2</v>
       </c>
       <c r="D18" s="5">
         <f>_xll.qlSwapRateHelperSpread($A18,Trigger)</f>
@@ -2829,17 +2829,17 @@
       </c>
       <c r="H18" s="11">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I18" s="12">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>43963</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
         <f>Swaps!L14</f>
-        <v>obj_0016a#0003</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A19)</f>
@@ -2865,17 +2865,17 @@
       </c>
       <c r="H19" s="11">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I19" s="12">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>44328</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f>Swaps!L15</f>
-        <v>obj_00168#0003</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A20)</f>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C20" s="5">
         <f>_xll.qlRateHelperQuoteValue($A20,Trigger)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="D20" s="5">
         <f>_xll.qlSwapRateHelperSpread($A20,Trigger)</f>
@@ -2901,17 +2901,17 @@
       </c>
       <c r="H20" s="11">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I20" s="12">
         <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
-        <v>44693</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f>Swaps!L16</f>
-        <v>obj_00165#0003</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A21)</f>
@@ -2937,17 +2937,17 @@
       </c>
       <c r="H21" s="11">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I21" s="12">
         <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
-        <v>45058</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f>Swaps!L17</f>
-        <v>obj_00162#0003</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A22)</f>
@@ -2973,17 +2973,17 @@
       </c>
       <c r="H22" s="11">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I22" s="12">
         <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
-        <v>45425</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>Swaps!L18</f>
-        <v>obj_0015f#0003</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A23)</f>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C23" s="5">
         <f>_xll.qlRateHelperQuoteValue($A23,Trigger)</f>
-        <v>2.06E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="D23" s="5">
         <f>_xll.qlSwapRateHelperSpread($A23,Trigger)</f>
@@ -3009,17 +3009,17 @@
       </c>
       <c r="H23" s="11">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I23" s="12">
         <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
-        <v>45789</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
         <f>Swaps!L19</f>
-        <v>obj_0015c#0003</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A24)</f>
@@ -3045,17 +3045,17 @@
       </c>
       <c r="H24" s="11">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I24" s="12">
         <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
-        <v>46154</v>
+        <v>46199</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>Swaps!L20</f>
-        <v>obj_00159#0003</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A25)</f>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="C25" s="5">
         <f>_xll.qlRateHelperQuoteValue($A25,Trigger)</f>
-        <v>2.1399999999999995E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="D25" s="5">
         <f>_xll.qlSwapRateHelperSpread($A25,Trigger)</f>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="H25" s="11">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I25" s="12">
         <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
-        <v>46519</v>
+        <v>46566</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f>Swaps!L21</f>
-        <v>obj_0016b#0003</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A26)</f>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="H26" s="11">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I26" s="12">
         <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
-        <v>46885</v>
+        <v>46930</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
         <f>Swaps!L22</f>
-        <v>obj_0016d#0003</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A27)</f>
@@ -3153,17 +3153,17 @@
       </c>
       <c r="H27" s="11">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I27" s="12">
         <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
-        <v>47252</v>
+        <v>47295</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>Swaps!L23</f>
-        <v>obj_00167#0003</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A28)</f>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C28" s="5">
         <f>_xll.qlRateHelperQuoteValue($A28,Trigger)</f>
-        <v>2.2199999999999998E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="D28" s="5">
         <f>_xll.qlSwapRateHelperSpread($A28,Trigger)</f>
@@ -3189,17 +3189,17 @@
       </c>
       <c r="H28" s="11">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I28" s="12">
         <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
-        <v>47616</v>
+        <v>47660</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f>Swaps!L24</f>
-        <v>obj_00164#0003</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A29)</f>
@@ -3225,17 +3225,17 @@
       </c>
       <c r="H29" s="11">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I29" s="12">
         <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
-        <v>47980</v>
+        <v>48025</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f>Swaps!L25</f>
-        <v>obj_00161#0003</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A30)</f>
@@ -3261,17 +3261,17 @@
       </c>
       <c r="H30" s="11">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I30" s="12">
         <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
-        <v>48346</v>
+        <v>48393</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
         <f>Swaps!L26</f>
-        <v>obj_0015e#0003</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A31)</f>
@@ -3297,17 +3297,17 @@
       </c>
       <c r="H31" s="11">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I31" s="12">
         <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
-        <v>48711</v>
+        <v>48757</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
         <f>Swaps!L27</f>
-        <v>obj_0015b#0003</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A32)</f>
@@ -3333,17 +3333,17 @@
       </c>
       <c r="H32" s="11">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I32" s="12">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>49076</v>
+        <v>49121</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="str">
         <f>Swaps!L28</f>
-        <v>obj_00158#0003</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A33)</f>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C33" s="5">
         <f>_xll.qlRateHelperQuoteValue($A33,Trigger)</f>
-        <v>2.35E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D33" s="5">
         <f>_xll.qlSwapRateHelperSpread($A33,Trigger)</f>
@@ -3369,11 +3369,11 @@
       </c>
       <c r="H33" s="11">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I33" s="12">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>49443</v>
+        <v>49486</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3454,15 +3454,15 @@
       </c>
       <c r="D2" s="21" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00128</v>
+        <v>obj_00140</v>
       </c>
       <c r="E2" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
-        <v>HkdHibor6MLastFixing_Quote</v>
+        <v>HKD6MD_Quote</v>
       </c>
       <c r="F2" s="22">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>5.4136000000000011E-3</v>
+        <v>5.4286000000000004E-3</v>
       </c>
       <c r="G2" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="H2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="I2" s="28">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42319</v>
+        <v>42366</v>
       </c>
       <c r="J2" s="18">
-        <v>0.99727837976014466</v>
+        <v>0.9972412765401325</v>
       </c>
       <c r="K2" s="23"/>
     </row>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="21" t="str">
-        <v>obj_00157</v>
+        <v>obj_00127</v>
       </c>
       <c r="E3" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="F3" s="22">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="G3" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -3505,14 +3505,14 @@
       </c>
       <c r="H3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I3" s="28">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42502</v>
+        <v>42548</v>
       </c>
       <c r="J3" s="18">
-        <v>0.99518544388735097</v>
+        <v>0.99467307832788687</v>
       </c>
       <c r="K3" s="23"/>
     </row>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="str">
-        <v>obj_00166</v>
+        <v>obj_00128</v>
       </c>
       <c r="E4" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F4" s="22">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>6.5000000000000006E-3</v>
+        <v>6.6999999999999994E-3</v>
       </c>
       <c r="G4" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -3540,14 +3540,14 @@
       </c>
       <c r="H4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I4" s="28">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42688</v>
+        <v>42731</v>
       </c>
       <c r="J4" s="18">
-        <v>0.99020156077964427</v>
+        <v>0.9899402846901465</v>
       </c>
       <c r="K4" s="23"/>
     </row>
@@ -3559,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="21" t="str">
-        <v>obj_00160</v>
+        <v>obj_00136</v>
       </c>
       <c r="E5" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -3575,14 +3575,14 @@
       </c>
       <c r="H5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I5" s="28">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42867</v>
+        <v>42912</v>
       </c>
       <c r="J5" s="18">
-        <v>0.98348239095329704</v>
+        <v>0.98348675808599173</v>
       </c>
       <c r="K5" s="23"/>
     </row>
@@ -3590,7 +3590,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="D6" s="21" t="str">
-        <v>obj_0015d</v>
+        <v>obj_00134</v>
       </c>
       <c r="E6" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -3606,20 +3606,20 @@
       </c>
       <c r="H6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I6" s="28">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>43234</v>
+        <v>43277</v>
       </c>
       <c r="J6" s="18">
-        <v>0.9661666072078946</v>
+        <v>0.96623222939470677</v>
       </c>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="21" t="str">
-        <v>obj_0015a</v>
+        <v>obj_00131</v>
       </c>
       <c r="E7" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="F7" s="22">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.38E-2</v>
+        <v>1.3900000000000001E-2</v>
       </c>
       <c r="G7" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -3635,20 +3635,20 @@
       </c>
       <c r="H7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I7" s="28">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>43598</v>
+        <v>43642</v>
       </c>
       <c r="J7" s="18">
-        <v>0.94592267064079705</v>
+        <v>0.94557552754721896</v>
       </c>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="21" t="str">
-        <v>obj_0016c</v>
+        <v>obj_00123</v>
       </c>
       <c r="E8" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F8" s="22">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.6200000000000003E-2</v>
       </c>
       <c r="G8" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -3664,20 +3664,20 @@
       </c>
       <c r="H8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I8" s="28">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>43963</v>
+        <v>44008</v>
       </c>
       <c r="J8" s="18">
-        <v>0.92432436413541419</v>
+        <v>0.92145460157204218</v>
       </c>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="21" t="str">
-        <v>obj_00168</v>
+        <v>obj_00137</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="F9" s="22">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="G9" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -3693,20 +3693,20 @@
       </c>
       <c r="H9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I9" s="28">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="J9" s="18">
-        <v>0.87899113195046319</v>
+        <v>0.87188440298917702</v>
       </c>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="21" t="str">
-        <v>obj_0015f</v>
+        <v>obj_00122</v>
       </c>
       <c r="E10" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="F10" s="22">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.06E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="G10" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -3722,20 +3722,20 @@
       </c>
       <c r="H10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I10" s="28">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>45789</v>
+        <v>45834</v>
       </c>
       <c r="J10" s="18">
-        <v>0.81096864568402427</v>
+        <v>0.79819693203697051</v>
       </c>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="21" t="str">
-        <v>obj_00159</v>
+        <v>obj_0012e</v>
       </c>
       <c r="E11" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="F11" s="22">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.1399999999999995E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="G11" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -3751,20 +3751,20 @@
       </c>
       <c r="H11" s="11">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I11" s="28">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>46519</v>
+        <v>46566</v>
       </c>
       <c r="J11" s="18">
-        <v>0.76991953253976941</v>
+        <v>0.75743861606421581</v>
       </c>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="21" t="str">
-        <v>obj_00167</v>
+        <v>obj_00121</v>
       </c>
       <c r="E12" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="F12" s="22">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.2199999999999998E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="G12" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -3780,20 +3780,20 @@
       </c>
       <c r="H12" s="11">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I12" s="28">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>47616</v>
+        <v>47660</v>
       </c>
       <c r="J12" s="18">
-        <v>0.71204963895355788</v>
+        <v>0.69532824631967038</v>
       </c>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="21" t="str">
-        <v>obj_00158</v>
+        <v>obj_00135</v>
       </c>
       <c r="E13" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F13" s="22">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.35E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G13" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -3809,14 +3809,14 @@
       </c>
       <c r="H13" s="11">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42136</v>
+        <v>42181</v>
       </c>
       <c r="I13" s="28">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>49443</v>
+        <v>49486</v>
       </c>
       <c r="J13" s="18">
-        <v>0.61733372763186234</v>
+        <v>0.59816766612848471</v>
       </c>
       <c r="K13" s="23"/>
     </row>
@@ -7007,7 +7007,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7015,8 +7015,8 @@
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -7068,12 +7068,12 @@
         <v>HkdHiborON</v>
       </c>
       <c r="D3" s="38" t="str">
-        <f t="shared" ref="D3:D11" si="1">PROPER(Currency)&amp;FamilyName&amp;$B3&amp;"LastFixing"&amp;QuoteSuffix</f>
-        <v>HkdHiborONLastFixing_Quote</v>
+        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKDOND_Quote</v>
       </c>
       <c r="E3" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00121#0002</v>
+        <v>obj_00138#0005</v>
       </c>
       <c r="F3" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -7093,12 +7093,12 @@
         <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHiborSWLastFixing_Quote</v>
+        <f>Currency&amp;$B4&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKDSWD_Quote</v>
       </c>
       <c r="E4" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00127#0002</v>
+        <v>obj_0013f#0003</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -7118,12 +7118,12 @@
         <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor2WLastFixing_Quote</v>
+        <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD2WD_Quote</v>
       </c>
       <c r="E5" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00126#0002</v>
+        <v>obj_0013e#0003</v>
       </c>
       <c r="F5" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -7143,12 +7143,12 @@
         <v>HkdHibor1M</v>
       </c>
       <c r="D6" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor1MLastFixing_Quote</v>
+        <f>Currency&amp;$B6&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD1MD_Quote</v>
       </c>
       <c r="E6" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00129#0002</v>
+        <v>obj_00139#0003</v>
       </c>
       <c r="F6" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -7168,12 +7168,12 @@
         <v>HkdHibor2M</v>
       </c>
       <c r="D7" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor2MLastFixing_Quote</v>
+        <f>Currency&amp;$B7&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD2MD_Quote</v>
       </c>
       <c r="E7" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00125#0002</v>
+        <v>obj_0013d#0003</v>
       </c>
       <c r="F7" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -7193,12 +7193,12 @@
         <v>HkdHibor3M</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor3MLastFixing_Quote</v>
+        <f>Currency&amp;$B8&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD3MD_Quote</v>
       </c>
       <c r="E8" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00122#0002</v>
+        <v>obj_0013a#0003</v>
       </c>
       <c r="F8" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -7218,12 +7218,12 @@
         <v>HkdHibor6M</v>
       </c>
       <c r="D9" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor6MLastFixing_Quote</v>
+        <f>Currency&amp;$B9&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD6MD_Quote</v>
       </c>
       <c r="E9" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00128#0002</v>
+        <v>obj_00140#0003</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -7243,12 +7243,12 @@
         <v>HkdHibor9M</v>
       </c>
       <c r="D10" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor9MLastFixing_Quote</v>
+        <f>Currency&amp;$B10&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD9MD_Quote</v>
       </c>
       <c r="E10" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00124#0002</v>
+        <v>obj_0013c#0003</v>
       </c>
       <c r="F10" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -7268,12 +7268,12 @@
         <v>HkdHibor1Y</v>
       </c>
       <c r="D11" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdHibor1YLastFixing_Quote</v>
+        <f>Currency&amp;$B11&amp;"D"&amp;QuoteSuffix</f>
+        <v>HKD1YD_Quote</v>
       </c>
       <c r="E11" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00123#0002</v>
+        <v>obj_0013b#0003</v>
       </c>
       <c r="F11" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -7441,7 +7441,7 @@
       <c r="K4" s="48"/>
       <c r="L4" s="63" t="str">
         <f>_xll.qlIborIndex(,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00120#0003</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="M4" s="64" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="L6" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$4,$J6,C6&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00157#0003</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="M6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="L7" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$4,$J7,C7&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00169#0003</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="M7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="L8" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$4,$J8,C8&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00166#0003</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="M8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="L9" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$4,$J9,C9&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00163#0003</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="M9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="L10" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$4,$J10,C10&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00160#0003</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="M10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="L11" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$4,$J11,C11&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015d#0003</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="M11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="L12" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$4,$J12,C12&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015a#0003</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="M12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="L13" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$4,$J13,C13&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016c#0003</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="M13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="L14" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$4,$J14,C14&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016a#0003</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="M14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="L15" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$4,$J15,C15&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00168#0003</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="M15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="L16" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$4,$J16,C16&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00165#0003</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="M16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="L17" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$4,$J17,C17&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00162#0003</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="M17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="L18" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$4,$J18,C18&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015f#0003</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="M18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="L19" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$4,$J19,C19&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015c#0003</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="M19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="L20" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$4,$J20,C20&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00159#0003</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="M20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="L21" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$4,$J21,C21&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016b#0003</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="M21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="L22" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$4,$J22,C22&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016d#0003</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="M22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="L23" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$4,$J23,C23&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00167#0003</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="M23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="L24" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$4,$J24,C24&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00164#0003</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="M24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="L25" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$4,$J25,C25&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00161#0003</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="M25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="L26" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$4,$J26,C26&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015e#0003</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="M26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="L27" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$4,$J27,C27&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015b#0003</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="M27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="L28" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$4,$J28,C28&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00158#0003</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="M28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
